--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3878931.018286815</v>
+        <v>3874793.861036665</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7369472.594436643</v>
+        <v>7369472.594436644</v>
       </c>
     </row>
     <row r="11">
@@ -673,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>21.80557980528707</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>233.4228999901522</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>53.63755728146457</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -867,25 +867,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>190.7172495762591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>225.7344481542846</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>158.4473523801169</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>22.36924845046952</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>175.4286753102821</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>110.9878591565042</v>
+        <v>232.4266580430901</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>78.10458232968615</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.94563726208645</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1423,10 +1423,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576137</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881308</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D13" t="n">
-        <v>141.6930519056948</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406033</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V16" t="n">
-        <v>132.2740511637359</v>
+        <v>113.6427030833192</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
-        <v>53.22824985092664</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892427999</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.84205284513808</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892427999</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E25" t="n">
-        <v>19.51567534720976</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790557</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.70843787977307</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>106.1291803787684</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>20.2254435299302</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>102.0417503712956</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>34.00490843294678</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>73.74785292486236</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>33.82351723687751</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>901.3425442071327</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="C2" t="n">
-        <v>532.3800272667211</v>
+        <v>757.7992423756293</v>
       </c>
       <c r="D2" t="n">
-        <v>532.3800272667211</v>
+        <v>757.7992423756293</v>
       </c>
       <c r="E2" t="n">
-        <v>146.5917746684768</v>
+        <v>372.0109897773851</v>
       </c>
       <c r="F2" t="n">
-        <v>139.6462739192734</v>
+        <v>365.0654890281816</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>353.4011427928746</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182944</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>901.3425442071327</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>642.7634789947318</v>
+        <v>825.137147448514</v>
       </c>
       <c r="C4" t="n">
-        <v>473.8272960668249</v>
+        <v>656.2009645206072</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8272960668249</v>
+        <v>506.0843251082714</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>358.1712315258783</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>211.2812840279679</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1310.884232784815</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1056.199744578928</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>863.556058138262</v>
+        <v>825.137147448514</v>
       </c>
       <c r="X4" t="n">
-        <v>863.556058138262</v>
+        <v>825.137147448514</v>
       </c>
       <c r="Y4" t="n">
-        <v>642.7634789947318</v>
+        <v>825.137147448514</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>832.1627361996682</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="C5" t="n">
-        <v>832.1627361996682</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
         <v>473.8970375929177</v>
@@ -4558,13 +4558,13 @@
         <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
@@ -4573,7 +4573,7 @@
         <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4597,22 +4597,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270159</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926588</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1608.901908239602</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>1608.901908239602</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1218.76257626379</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429755</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>390.6912635333229</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>221.7550806054159</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>221.7550806054159</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>73.84198702302282</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>73.84198702302282</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4752,25 +4752,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1356.662031458481</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.549477544053</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="W7" t="n">
-        <v>793.1323075070927</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="X7" t="n">
-        <v>793.1323075070927</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>572.3397283635626</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>909.6965460670931</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="C8" t="n">
-        <v>540.7340291266814</v>
+        <v>359.3403385450455</v>
       </c>
       <c r="D8" t="n">
-        <v>540.7340291266814</v>
+        <v>359.3403385450455</v>
       </c>
       <c r="E8" t="n">
-        <v>540.7340291266814</v>
+        <v>359.3403385450455</v>
       </c>
       <c r="F8" t="n">
-        <v>533.788528377478</v>
+        <v>352.3948377958421</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392295</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1296.296386131215</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1296.296386131215</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>599.4122767260735</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505112</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
         <v>1867.77024428415</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>425.7691497071407</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>425.7691497071407</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D10" t="n">
-        <v>425.7691497071407</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>224.1731970904428</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>75.43429895394902</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1056.199744578928</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1056.199744578928</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>828.2101936809106</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>607.4176145373805</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611464</v>
@@ -5029,19 +5029,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5050,31 +5050,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>707.6725264685184</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>538.7363435406114</v>
       </c>
       <c r="D13" t="n">
-        <v>383.4415877881669</v>
+        <v>388.6197041282756</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458824</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216015</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238956</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340306</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987583</v>
       </c>
     </row>
     <row r="14">
@@ -5275,31 +5275,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>924.8344286397182</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.927936255316</v>
+        <v>653.7474797708876</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1554.775701164064</v>
+        <v>1573.595244679636</v>
       </c>
       <c r="W16" t="n">
-        <v>1265.358531127103</v>
+        <v>1284.178074642675</v>
       </c>
       <c r="X16" t="n">
-        <v>1037.368980229086</v>
+        <v>1056.188523744658</v>
       </c>
       <c r="Y16" t="n">
-        <v>816.5764010855557</v>
+        <v>835.3959446011274</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>835.5837926935562</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270426</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138398</v>
       </c>
       <c r="Y19" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5831,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349513</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>640.1060525954244</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C22" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270426</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138398</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3047.140839595366</v>
+        <v>560.7825789706079</v>
       </c>
       <c r="C25" t="n">
-        <v>2878.204656667459</v>
+        <v>391.8463960427009</v>
       </c>
       <c r="D25" t="n">
-        <v>2728.088017255124</v>
+        <v>241.7297566303651</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874104</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328842</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.25592267304</v>
+        <v>1735.314832085243</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467153</v>
+        <v>1480.630343879356</v>
       </c>
       <c r="W25" t="n">
-        <v>3677.571434467153</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>3449.581883569136</v>
+        <v>963.223622944378</v>
       </c>
       <c r="Y25" t="n">
-        <v>3228.789304425606</v>
+        <v>742.4310438008478</v>
       </c>
     </row>
     <row r="26">
@@ -6214,46 +6214,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6457,58 +6457,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
         <v>776.1751066403293</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3194.624135499466</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3825.054730371254</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3825.054730371254</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3597.065179473236</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3376.272600329706</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,13 +6694,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075811</v>
@@ -6709,40 +6709,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1413.271624709496</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.4894946679487</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511905</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232836</v>
+        <v>817.189422194221</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>667.0727827818853</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>519.1596891994922</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052219</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015259</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.415575117241</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.622995973711</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,25 +7189,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832228</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C43" t="n">
-        <v>634.9279362553159</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2305.424599100479</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2085.82313412342</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1796.747907467618</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1542.063419261731</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1252.64624922477</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1024.656698326753</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y43" t="n">
-        <v>803.8641191832228</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>984.9192356072721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>815.9830526793652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>665.8664132670294</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>224.3355197601772</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241559</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>6.454437538929824</v>
+        <v>265.0304328515143</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>6.922421112517554</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610414</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>119.8635921600921</v>
+        <v>138.4949402405089</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>114.0185712477012</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194402</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>124.9899273367992</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194402</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>126.9182872993594</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>46.45968844823267</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>146.8157004124958</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>146.0084629450596</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>266.2975548066608</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>77.7902298106417</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>111.4161395899845</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>136.2749052347514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>107.2784330767822</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>112.6104454096917</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>650757.0122262525</v>
+        <v>650757.0122262526</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>650757.0122262525</v>
+        <v>650757.0122262526</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632857.9423399026</v>
+        <v>632857.9423399025</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>632857.9423399025</v>
+        <v>632857.9423399026</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>632857.9423399026</v>
+        <v>632857.9423399025</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>632857.9423399026</v>
+        <v>632857.9423399025</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176764</v>
@@ -26325,37 +26325,37 @@
         <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977561</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731789</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731936</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731936</v>
       </c>
       <c r="H4" t="n">
+        <v>8117.312426731936</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731936</v>
+      </c>
+      <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="I4" t="n">
-        <v>8117.312426731975</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8117.312426731918</v>
-      </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-541491.8306599519</v>
+        <v>-541491.8306599517</v>
       </c>
       <c r="C6" t="n">
         <v>573259.9529159678</v>
       </c>
       <c r="D6" t="n">
-        <v>573259.9529159679</v>
+        <v>573259.952915968</v>
       </c>
       <c r="E6" t="n">
-        <v>170242.650822571</v>
+        <v>169895.271568214</v>
       </c>
       <c r="F6" t="n">
-        <v>677728.0924471167</v>
+        <v>677380.7131927602</v>
       </c>
       <c r="G6" t="n">
-        <v>677728.0924471169</v>
+        <v>677380.7131927604</v>
       </c>
       <c r="H6" t="n">
-        <v>677728.0924471166</v>
+        <v>677380.7131927599</v>
       </c>
       <c r="I6" t="n">
-        <v>677728.0924471167</v>
+        <v>677380.7131927599</v>
       </c>
       <c r="J6" t="n">
-        <v>510122.9146371342</v>
+        <v>509775.5353827772</v>
       </c>
       <c r="K6" t="n">
-        <v>677728.0924471167</v>
+        <v>677380.71319276</v>
       </c>
       <c r="L6" t="n">
-        <v>677728.0924471165</v>
+        <v>677380.7131927598</v>
       </c>
       <c r="M6" t="n">
-        <v>545120.7987181898</v>
+        <v>544773.4194638332</v>
       </c>
       <c r="N6" t="n">
-        <v>677728.092447117</v>
+        <v>677380.7131927599</v>
       </c>
       <c r="O6" t="n">
-        <v>677728.0924471171</v>
+        <v>677380.7131927599</v>
       </c>
       <c r="P6" t="n">
-        <v>677728.0924471166</v>
+        <v>677380.7131927598</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26810,22 +26810,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>389.7421229676669</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>67.59565257225313</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>112.6690427633396</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>95.80574876033191</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>156.9993935091959</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>190.7936163372961</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,16 +27779,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>143.9373515943347</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27824,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>45.32002068692981</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>300.5598436164498</v>
+        <v>179.1210447298639</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>68.32938031688302</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>80.85095794181413</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28095,19 +28095,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-5.238644642555314e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,13 +28140,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-2.214068928196866e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-1.166533536434145e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>8.953513792444654e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488877</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422519</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>518.0009690113193</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>473.8581708471796</v>
+        <v>764.2478901092629</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>755.4040473746011</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>602.4605829984174</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305192</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>592.1874941409601</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>235.5705495535871</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>140.7358547888808</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>340.4395077511227</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>615.5326193530511</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676407</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>304.13479817678</v>
+        <v>562.7107934893645</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655544</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35585,10 +35585,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237767</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>386.659256927986</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35816,16 +35816,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>342.5164587638463</v>
+        <v>632.9061780259296</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>624.0623352912678</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>471.1188709150841</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>330.3773834724255</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561602</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>103.6778299969394</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>453.6331143610859</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>92.97430510914269</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>197.8432633066783</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3874793.861036665</v>
+        <v>3876554.39133945</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7369472.594436644</v>
+        <v>7369472.594436643</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>204.768365911652</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>233.4228999901522</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>53.63755728146457</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>54.57777833528768</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>225.7344481542846</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>101.4787611642701</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>175.4286753102821</v>
+        <v>162.1967738658446</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>286.5888679426052</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>232.4266580430901</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>23.94563726208645</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>23.94563726208618</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710093</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576137</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881308</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>115.0893535554434</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>55.5207962406033</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856563</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012177</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>113.6427030833192</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892427999</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101218</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892427999</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101218</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>170.9457618790557</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>33.58398714687333</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F37" t="n">
-        <v>34.00490843294678</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>145.0635245304612</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>147.6895341487364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>94.30373791808249</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1126.761759316041</v>
+        <v>740.1619192519188</v>
       </c>
       <c r="C2" t="n">
-        <v>757.7992423756293</v>
+        <v>740.1619192519188</v>
       </c>
       <c r="D2" t="n">
-        <v>757.7992423756293</v>
+        <v>740.1619192519188</v>
       </c>
       <c r="E2" t="n">
-        <v>372.0109897773851</v>
+        <v>740.1619192519188</v>
       </c>
       <c r="F2" t="n">
-        <v>365.0654890281816</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>353.4011427928746</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,25 +4330,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4363,13 +4363,13 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.227517577121</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
         <v>1126.761759316041</v>
@@ -4391,13 +4391,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4409,28 +4409,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>590.20497511435</v>
+        <v>299.2648838844856</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>593.9684409159572</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>957.2304598751772</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>825.137147448514</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="C4" t="n">
-        <v>656.2009645206072</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D4" t="n">
-        <v>506.0843251082714</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>358.1712315258783</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>211.2812840279679</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
         <v>157.1019332386098</v>
@@ -4488,52 +4488,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>825.137147448514</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="W4" t="n">
-        <v>825.137147448514</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="X4" t="n">
-        <v>825.137147448514</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="Y4" t="n">
-        <v>825.137147448514</v>
+        <v>770.0080784229705</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1217.950988797912</v>
+        <v>934.6665353554965</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>934.6665353554965</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>576.4008367487461</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>576.4008367487461</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>165.4149319591385</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>153.7505857238315</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>2084.87146565651</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868961</v>
+        <v>1711.40570739543</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.96558289315</v>
+        <v>1321.266375419618</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>717.8525085495376</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2362.930966067699</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885492</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4752,25 +4752,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1356.662031458481</v>
+        <v>1173.398840632926</v>
       </c>
       <c r="U7" t="n">
-        <v>1067.543693962319</v>
+        <v>1173.398840632926</v>
       </c>
       <c r="V7" t="n">
-        <v>1067.543693962319</v>
+        <v>1173.398840632926</v>
       </c>
       <c r="W7" t="n">
-        <v>1067.543693962319</v>
+        <v>1173.398840632926</v>
       </c>
       <c r="X7" t="n">
-        <v>1067.543693962319</v>
+        <v>1173.398840632926</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.7511148187889</v>
+        <v>952.6062614893956</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854573</v>
+        <v>728.3028554854559</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450455</v>
+        <v>359.3403385450442</v>
       </c>
       <c r="D8" t="n">
-        <v>359.3403385450455</v>
+        <v>69.85663355251361</v>
       </c>
       <c r="E8" t="n">
-        <v>359.3403385450455</v>
+        <v>69.85663355251361</v>
       </c>
       <c r="F8" t="n">
-        <v>352.3948377958421</v>
+        <v>62.91113280331014</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2231.276441056583</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1878.507785786469</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1505.042027525389</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1114.902695549578</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
         <v>2199.840679460312</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1006.01552520271</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="C10" t="n">
-        <v>837.0793422748035</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D10" t="n">
-        <v>686.9627028624677</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0496092800746</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F10" t="n">
-        <v>392.1596617821642</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G10" t="n">
-        <v>224.1731970904428</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>75.43429895394902</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -5001,13 +5001,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>1612.258607688551</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611464</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.6725264685184</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406114</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282756</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458824</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216015</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238956</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340306</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987583</v>
+        <v>984.9192356072725</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436268</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921476</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898186995</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708876</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429805</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429805</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429805</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429805</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578604</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679636</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642675</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744658</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011274</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,25 +5597,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400697</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121627</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121627</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121627</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121627</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270426</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,13 +5673,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611857</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138398</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703096</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400697</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121627</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121627</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121627</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121627</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270426</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138398</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703096</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5980,58 +5980,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075796</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706079</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427009</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D25" t="n">
-        <v>241.7297566303651</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085243</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879356</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X25" t="n">
-        <v>963.223622944378</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008478</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6363,58 +6363,58 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
         <v>1746.193029533436</v>
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6697,16 +6697,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>986.1256051221279</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>817.189422194221</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>667.0727827818853</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>519.1596891994922</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1388.566649095898</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1167.774069952368</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,13 +7186,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958734</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>633.9926444679666</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261132</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7785,22 +7785,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780645</v>
+        <v>0.9556134883073923</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>84.9418658837474</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,19 +8534,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>265.0304328515143</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039156</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>64.74262662649394</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856562</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012176</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>125.5054897610414</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>138.4949402405089</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194402</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194402</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856565</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>46.45968844823267</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>218.5536561769547</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F37" t="n">
-        <v>111.4161395899845</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>80.64613085857599</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>632857.9423399026</v>
+        <v>632857.9423399025</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632857.9423399025</v>
+        <v>632857.9423399026</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977561</v>
-      </c>
       <c r="L2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="P2" t="n">
         <v>786967.9346977557</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245465</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.293728927</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731789</v>
+        <v>8117.31242673189</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731936</v>
+        <v>8117.312426731969</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731936</v>
+        <v>8117.312426731967</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731936</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731936</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
+        <v>8117.312426731935</v>
+      </c>
+      <c r="K4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.312426732015</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
@@ -26453,7 +26453,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731952</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-541491.8306599517</v>
+        <v>-541491.8306599518</v>
       </c>
       <c r="C6" t="n">
-        <v>573259.9529159678</v>
+        <v>573259.9529159681</v>
       </c>
       <c r="D6" t="n">
-        <v>573259.952915968</v>
+        <v>573259.9529159679</v>
       </c>
       <c r="E6" t="n">
-        <v>169895.271568214</v>
+        <v>170207.9128971343</v>
       </c>
       <c r="F6" t="n">
-        <v>677380.7131927602</v>
+        <v>677693.3545216813</v>
       </c>
       <c r="G6" t="n">
-        <v>677380.7131927604</v>
+        <v>677693.3545216814</v>
       </c>
       <c r="H6" t="n">
-        <v>677380.7131927599</v>
+        <v>677693.3545216811</v>
       </c>
       <c r="I6" t="n">
-        <v>677380.7131927599</v>
+        <v>677693.3545216813</v>
       </c>
       <c r="J6" t="n">
-        <v>509775.5353827772</v>
+        <v>510088.1767116982</v>
       </c>
       <c r="K6" t="n">
-        <v>677380.71319276</v>
+        <v>677693.3545216812</v>
       </c>
       <c r="L6" t="n">
-        <v>677380.7131927598</v>
+        <v>677693.3545216812</v>
       </c>
       <c r="M6" t="n">
-        <v>544773.4194638332</v>
+        <v>545086.0607927542</v>
       </c>
       <c r="N6" t="n">
-        <v>677380.7131927599</v>
+        <v>677693.354521681</v>
       </c>
       <c r="O6" t="n">
-        <v>677380.7131927599</v>
+        <v>677693.3545216813</v>
       </c>
       <c r="P6" t="n">
-        <v>677380.7131927598</v>
+        <v>677693.3545216812</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26810,10 +26810,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224135</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996105</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996108</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996105</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>202.1076798300595</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>67.59565257225313</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>112.6690427633396</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>197.5598649885403</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>156.9993935091959</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>199.5397913981353</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27794,7 +27794,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>45.32002068692981</v>
+        <v>58.55192213136735</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>68.09417367807777</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>179.1210447298639</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>80.85095794181413</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>262.5773610745048</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.674596803735691e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.734053541473041e-12</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.238644642555314e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,13 +28140,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>-6.674596803735691e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>-2.214068928196866e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.674596803735691e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.674596803735691e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28614,10 +28614,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.674596803735691e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.674596803735691e-14</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-1.166533536434145e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.953513792444654e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>357.9244589488877</v>
+        <v>403.8524967138013</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
         <v>561.87657862147</v>
@@ -32074,16 +32074,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L15" t="n">
-        <v>209.9499448422519</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32095,13 +32095,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>764.2478901092629</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>281.0363767960755</v>
+        <v>281.0363767960748</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215493</v>
+        <v>187.5431097317922</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>201.4225882146019</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>562.7107934893645</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>226.5827468655544</v>
+        <v>272.510784630468</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071398</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L15" t="n">
-        <v>71.39556506237767</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,13 +35743,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>632.9061780259296</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>138.9023428740572</v>
+        <v>138.9023428740565</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
